--- a/data/01_pd-samples/25_10-16_pd_samples-edited.xlsx
+++ b/data/01_pd-samples/25_10-16_pd_samples-edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caprinapugliese/Documents/School/Uconn/2024-26_Grad_School/Dagilis-lab/WNS-project/data/01_pd-samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F09946D8-0080-C242-B720-64819D4F96E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A8E7AB-815B-E44B-9F75-2F2211CEF071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="1540" windowWidth="23220" windowHeight="17440" xr2:uid="{D99E271A-162C-F24C-8D0E-BBA6ED327C07}"/>
+    <workbookView xWindow="4520" yWindow="560" windowWidth="23220" windowHeight="17440" xr2:uid="{D99E271A-162C-F24C-8D0E-BBA6ED327C07}"/>
   </bookViews>
   <sheets>
     <sheet name="25_10-16_pd_samples-edited" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="377">
   <si>
     <t>sample_id</t>
   </si>
@@ -379,9 +379,6 @@
     <t>Illumina MiSeq</t>
   </si>
   <si>
-    <t>Canada: New Brunswick\, Dorchester Mine</t>
-  </si>
-  <si>
     <t>PE8</t>
   </si>
   <si>
@@ -544,9 +541,6 @@
     <t>GU350433</t>
   </si>
   <si>
-    <t>Germany: Thueringen</t>
-  </si>
-  <si>
     <t>Pd_48</t>
   </si>
   <si>
@@ -556,9 +550,6 @@
     <t>22504-1</t>
   </si>
   <si>
-    <t>Switzerland: Aargau</t>
-  </si>
-  <si>
     <t>Pd_49</t>
   </si>
   <si>
@@ -568,9 +559,6 @@
     <t>22442-2</t>
   </si>
   <si>
-    <t>USA: Pennsylvania\, Centre County</t>
-  </si>
-  <si>
     <t>Pd_50</t>
   </si>
   <si>
@@ -580,9 +568,6 @@
     <t>22429-8</t>
   </si>
   <si>
-    <t>USA: New Jersey\, Warren County</t>
-  </si>
-  <si>
     <t>Pd_51</t>
   </si>
   <si>
@@ -592,9 +577,6 @@
     <t>22971-3</t>
   </si>
   <si>
-    <t>USA: West Virginia\, Pendleton County</t>
-  </si>
-  <si>
     <t>Pd_52</t>
   </si>
   <si>
@@ -604,9 +586,6 @@
     <t>22948-1</t>
   </si>
   <si>
-    <t>Canada: Ontario\, Kirkland Lake</t>
-  </si>
-  <si>
     <t>Pd_53</t>
   </si>
   <si>
@@ -616,9 +595,6 @@
     <t>20674-9</t>
   </si>
   <si>
-    <t>USA: Tennessee\, Montgomery County</t>
-  </si>
-  <si>
     <t>Pd_54</t>
   </si>
   <si>
@@ -631,9 +607,6 @@
     <t>Illumina HiSeq 2000</t>
   </si>
   <si>
-    <t>USA: Vermont\, Bennington County</t>
-  </si>
-  <si>
     <t>Pd_55</t>
   </si>
   <si>
@@ -643,9 +616,6 @@
     <t>22469-1</t>
   </si>
   <si>
-    <t>USA: Connecticut\, Litchfield County</t>
-  </si>
-  <si>
     <t>Pd_56</t>
   </si>
   <si>
@@ -655,9 +625,6 @@
     <t>20682-10</t>
   </si>
   <si>
-    <t>USA: Virginia\, Giles\, County</t>
-  </si>
-  <si>
     <t>Pd_57</t>
   </si>
   <si>
@@ -667,9 +634,6 @@
     <t>22004-1</t>
   </si>
   <si>
-    <t>USA: Massachussetts\, Berkshire County</t>
-  </si>
-  <si>
     <t>Pd_58</t>
   </si>
   <si>
@@ -700,9 +664,6 @@
     <t>22480-1</t>
   </si>
   <si>
-    <t>Hungary: Kislod</t>
-  </si>
-  <si>
     <t>Pd_62</t>
   </si>
   <si>
@@ -721,18 +682,12 @@
     <t>lib_63</t>
   </si>
   <si>
-    <t>USA: Tennessee\, Sullivan County</t>
-  </si>
-  <si>
     <t>Pd_64</t>
   </si>
   <si>
     <t>SRR6011480</t>
   </si>
   <si>
-    <t>USA: Maryland\, Allegany County</t>
-  </si>
-  <si>
     <t>Pd_65</t>
   </si>
   <si>
@@ -742,9 +697,6 @@
     <t>S5_L001</t>
   </si>
   <si>
-    <t>USA: New York\, Ulster County</t>
-  </si>
-  <si>
     <t>Pd_66</t>
   </si>
   <si>
@@ -754,9 +706,6 @@
     <t>S3_L001</t>
   </si>
   <si>
-    <t>USA: Vermont\, Rutland County</t>
-  </si>
-  <si>
     <t>Pd_67</t>
   </si>
   <si>
@@ -766,9 +715,6 @@
     <t>S2_L001</t>
   </si>
   <si>
-    <t>Canada: Ontario</t>
-  </si>
-  <si>
     <t>Pd_68</t>
   </si>
   <si>
@@ -781,9 +727,6 @@
     <t>454-3441</t>
   </si>
   <si>
-    <t>USA: Tennessee\, Fentress County</t>
-  </si>
-  <si>
     <t>Pd_70</t>
   </si>
   <si>
@@ -820,9 +763,6 @@
     <t>SRR6011489</t>
   </si>
   <si>
-    <t>USA: Missouri\, Lincoln County</t>
-  </si>
-  <si>
     <t>23455-1</t>
   </si>
   <si>
@@ -832,9 +772,6 @@
     <t>SRR6011490</t>
   </si>
   <si>
-    <t>USA: Virginia\, Wise County</t>
-  </si>
-  <si>
     <t>Pd_75</t>
   </si>
   <si>
@@ -850,9 +787,6 @@
     <t>SRR6011492</t>
   </si>
   <si>
-    <t>USA: Indiana\, Crawford County</t>
-  </si>
-  <si>
     <t>23414-1W</t>
   </si>
   <si>
@@ -865,9 +799,6 @@
     <t>454-4591</t>
   </si>
   <si>
-    <t>USA: Indiana\, Washington County</t>
-  </si>
-  <si>
     <t>23877-1</t>
   </si>
   <si>
@@ -877,9 +808,6 @@
     <t>SRR6011494</t>
   </si>
   <si>
-    <t>USA: Deleware\, New Castle County</t>
-  </si>
-  <si>
     <t>Pd_79</t>
   </si>
   <si>
@@ -889,9 +817,6 @@
     <t>lib_79</t>
   </si>
   <si>
-    <t>USA: Maine\, Hancock County</t>
-  </si>
-  <si>
     <t>Gd44</t>
   </si>
   <si>
@@ -919,9 +844,6 @@
     <t>lib_81</t>
   </si>
   <si>
-    <t>France: Aquitaine\, Dordogne</t>
-  </si>
-  <si>
     <t>ON14</t>
   </si>
   <si>
@@ -934,9 +856,6 @@
     <t>lib_82</t>
   </si>
   <si>
-    <t>Canada: Ontario\, Rattlesnake Point</t>
-  </si>
-  <si>
     <t>NS1</t>
   </si>
   <si>
@@ -949,9 +868,6 @@
     <t>lib_83</t>
   </si>
   <si>
-    <t>Canada: Nova Scotia\, Falmouth</t>
-  </si>
-  <si>
     <t>NB28</t>
   </si>
   <si>
@@ -964,9 +880,6 @@
     <t>lib_84</t>
   </si>
   <si>
-    <t>Canada: New Brunswick\, Harbell's Cave</t>
-  </si>
-  <si>
     <t>NB27</t>
   </si>
   <si>
@@ -1091,13 +1004,160 @@
   </si>
   <si>
     <t>Fungus Causing White-Nose Syndrome in Bats Accumulates Genetic Variability in North America With No Sign of Recombination</t>
+  </si>
+  <si>
+    <t>The sequenced strain was isolated at The National Wildlife Health Center; the case and accession number is 20631-21. This strain was isolated from a little brown bat (Myotis lucifugus) that was collected at the Williams Hotel Mine in NY on Feb. 2, 2008, and is the designated type strain (Mycotaxon 108, pp. 147-154 (2009))</t>
+  </si>
+  <si>
+    <t>Williams Hotel Mine</t>
+  </si>
+  <si>
+    <t>https://www.broadinstitute.org/fungal-genome-initiative/geomyces-destructans-genome-project</t>
+  </si>
+  <si>
+    <t>D. Blehert</t>
+  </si>
+  <si>
+    <t>cultures</t>
+  </si>
+  <si>
+    <t>Harbell's Cave</t>
+  </si>
+  <si>
+    <t>Falmouth</t>
+  </si>
+  <si>
+    <t>Rattlesnake Point</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Kislod</t>
+  </si>
+  <si>
+    <t>Aargau</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Centre County</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Warren County</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Pendleton County</t>
+  </si>
+  <si>
+    <t>Kirkland Lake</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>don't know why the date is 1960, idk if that's a mistake but its in the metadata. It was sequenced in 2015</t>
+  </si>
+  <si>
+    <t>Massachussetts</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Litchfield County</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Giles County</t>
+  </si>
+  <si>
+    <t>Ulster County</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Deleware</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Bennington County</t>
+  </si>
+  <si>
+    <t>Berkshire County</t>
+  </si>
+  <si>
+    <t>Dordogne</t>
+  </si>
+  <si>
+    <t>Aquitaine</t>
+  </si>
+  <si>
+    <t>Rutland County</t>
+  </si>
+  <si>
+    <t>Sullivan County</t>
+  </si>
+  <si>
+    <t>Montgomery County</t>
+  </si>
+  <si>
+    <t>Allegany County</t>
+  </si>
+  <si>
+    <t>Fentress County</t>
+  </si>
+  <si>
+    <t>Washington County</t>
+  </si>
+  <si>
+    <t>Crawford County</t>
+  </si>
+  <si>
+    <t>Wise County</t>
+  </si>
+  <si>
+    <t>Hancock County</t>
+  </si>
+  <si>
+    <t>New Castle County</t>
+  </si>
+  <si>
+    <t>Lincoln County</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1228,6 +1288,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1530,7 +1598,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1573,15 +1641,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1615,6 +1685,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1643,17 +1714,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90C14361-2949-B74A-BFF6-1CEFD0790204}" name="Table1" displayName="Table1" ref="A1:Q75" totalsRowShown="0">
-  <autoFilter ref="A1:Q75" xr:uid="{90C14361-2949-B74A-BFF6-1CEFD0790204}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q75">
-    <sortCondition ref="C1:C75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90C14361-2949-B74A-BFF6-1CEFD0790204}" name="Table1" displayName="Table1" ref="A1:R75" totalsRowShown="0">
+  <autoFilter ref="A1:R75" xr:uid="{90C14361-2949-B74A-BFF6-1CEFD0790204}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R75">
+    <sortCondition ref="G1:G75"/>
   </sortState>
-  <tableColumns count="17">
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{30EFF156-3D30-484A-8AD7-EA85D1CE06B4}" name="sample_id"/>
     <tableColumn id="2" xr3:uid="{A57D6E87-53D9-9040-A419-D8F9EB108C4C}" name="internal_line_id"/>
     <tableColumn id="3" xr3:uid="{2A54557F-8AB7-7F43-877C-FD7C0EA8D35A}" name="sra"/>
     <tableColumn id="4" xr3:uid="{BDE76617-CD6A-DC47-AB84-5ECFBE4656EA}" name="platform"/>
     <tableColumn id="5" xr3:uid="{8E9655EC-1F75-A54B-A3E9-4D24F04D79E1}" name="library"/>
+    <tableColumn id="18" xr3:uid="{E29A7C29-3FAA-594A-8F1C-A5BD70E3E221}" name="year"/>
     <tableColumn id="6" xr3:uid="{F96D48D4-5576-D949-8F87-358982E8F9BC}" name="collection_date"/>
     <tableColumn id="7" xr3:uid="{440A3F30-2FD2-1840-BF5A-5CFA04086283}" name="instrument"/>
     <tableColumn id="8" xr3:uid="{5C69925C-6BFC-2E49-88D4-A2AB388AE6AF}" name="strat"/>
@@ -1988,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4D9535-1238-AB48-B467-419735026371}">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1999,19 +2071,19 @@
     <col min="1" max="1" width="11.6640625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" customWidth="1"/>
-    <col min="12" max="12" width="39.83203125" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" customWidth="1"/>
-    <col min="16" max="16" width="36.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="39.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="17" max="17" width="58.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="135" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2028,2531 +2100,3011 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>320</v>
-      </c>
       <c r="K1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="L1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="1">
-        <v>40073</v>
-      </c>
-      <c r="G2" t="s">
-        <v>160</v>
+        <v>135</v>
+      </c>
+      <c r="F2">
+        <v>1960</v>
+      </c>
+      <c r="G2">
+        <v>1960</v>
       </c>
       <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L2" t="s">
+        <v>303</v>
+      </c>
+      <c r="M2" t="s">
+        <v>306</v>
+      </c>
+      <c r="R2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3">
+        <v>2002</v>
+      </c>
+      <c r="G3">
+        <v>2002</v>
+      </c>
+      <c r="H3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L3" t="s">
+        <v>304</v>
+      </c>
+      <c r="M3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4">
+        <v>2008</v>
+      </c>
+      <c r="G4">
+        <v>2008</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>299</v>
+      </c>
+      <c r="L4" t="s">
+        <v>300</v>
+      </c>
+      <c r="M4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5">
+        <v>2008</v>
+      </c>
+      <c r="G5">
+        <v>2008</v>
+      </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>299</v>
+      </c>
+      <c r="L5" t="s">
+        <v>305</v>
+      </c>
+      <c r="M5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6">
+        <v>2008</v>
+      </c>
+      <c r="G6">
+        <v>2008</v>
+      </c>
+      <c r="H6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7">
+        <v>2008</v>
+      </c>
+      <c r="G7">
+        <v>2008</v>
+      </c>
+      <c r="H7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8">
+        <v>2008</v>
+      </c>
+      <c r="G8">
+        <v>2008</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="1">
-        <v>40073</v>
-      </c>
-      <c r="G3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="1">
-        <v>40073</v>
-      </c>
-      <c r="G4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="1">
-        <v>40073</v>
-      </c>
-      <c r="G5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>299</v>
+      </c>
+      <c r="L8" t="s">
         <v>302</v>
       </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F6">
-        <v>2014</v>
-      </c>
-      <c r="G6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="M8" t="s">
         <v>306</v>
       </c>
-      <c r="C7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F7">
-        <v>2013</v>
-      </c>
-      <c r="G7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>313</v>
-      </c>
-      <c r="F8" s="1">
-        <v>40967</v>
-      </c>
-      <c r="G8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>317</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="F9">
-        <v>2012</v>
-      </c>
-      <c r="G9" t="s">
-        <v>118</v>
+        <v>2008</v>
+      </c>
+      <c r="G9">
+        <v>2008</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>299</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="M9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F10">
         <v>2008</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>2008</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>299</v>
+      </c>
+      <c r="L10" t="s">
+        <v>293</v>
+      </c>
+      <c r="M10" t="s">
+        <v>301</v>
+      </c>
+      <c r="P10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11">
+        <v>2009</v>
+      </c>
+      <c r="G11">
+        <v>2009</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>324</v>
+      </c>
+      <c r="L11" t="s">
+        <v>325</v>
+      </c>
+      <c r="M11" t="s">
+        <v>306</v>
+      </c>
+      <c r="P11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>2010</v>
+      </c>
+      <c r="G12">
+        <v>2010</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>315</v>
+      </c>
+      <c r="L12" t="s">
+        <v>316</v>
+      </c>
+      <c r="M12" t="s">
+        <v>317</v>
+      </c>
+      <c r="N12">
+        <v>49.954439999999998</v>
+      </c>
+      <c r="O12">
+        <v>14.175829999999999</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>2010</v>
+      </c>
+      <c r="G13">
+        <v>2010</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L13" t="s">
+        <v>316</v>
+      </c>
+      <c r="M13" t="s">
+        <v>317</v>
+      </c>
+      <c r="N13">
+        <v>49.954439999999998</v>
+      </c>
+      <c r="O13">
+        <v>14.175829999999999</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <v>2011</v>
+      </c>
+      <c r="G14">
+        <v>2011</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>315</v>
+      </c>
+      <c r="L14" t="s">
+        <v>318</v>
+      </c>
+      <c r="M14" t="s">
+        <v>319</v>
+      </c>
+      <c r="N14">
+        <v>50.693460000000002</v>
+      </c>
+      <c r="O14">
+        <v>15.84652</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>2011</v>
+      </c>
+      <c r="G15">
+        <v>2011</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>315</v>
+      </c>
+      <c r="L15" t="s">
+        <v>318</v>
+      </c>
+      <c r="M15" t="s">
+        <v>319</v>
+      </c>
+      <c r="N15">
+        <v>50.693460000000002</v>
+      </c>
+      <c r="O15">
+        <v>15.84652</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16">
+        <v>2012</v>
+      </c>
+      <c r="G16">
+        <v>2012</v>
+      </c>
+      <c r="H16" t="s">
         <v>118</v>
       </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>328</v>
-      </c>
-      <c r="K10" t="s">
-        <v>329</v>
-      </c>
-      <c r="L10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11">
-        <v>1960</v>
-      </c>
-      <c r="G11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>328</v>
-      </c>
-      <c r="K11" t="s">
-        <v>332</v>
-      </c>
-      <c r="L11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12">
-        <v>2002</v>
-      </c>
-      <c r="G12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>321</v>
-      </c>
-      <c r="K12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13">
-        <v>2008</v>
-      </c>
-      <c r="G13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>328</v>
-      </c>
-      <c r="K13" t="s">
-        <v>334</v>
-      </c>
-      <c r="L13" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14">
-        <v>2008</v>
-      </c>
-      <c r="G14" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" t="s">
-        <v>328</v>
-      </c>
-      <c r="K14" t="s">
-        <v>329</v>
-      </c>
-      <c r="L14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15">
-        <v>2008</v>
-      </c>
-      <c r="G15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" t="s">
-        <v>328</v>
-      </c>
-      <c r="K15" t="s">
-        <v>332</v>
-      </c>
-      <c r="L15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16">
-        <v>2008</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="L16" t="s">
-        <v>335</v>
+        <v>293</v>
+      </c>
+      <c r="M16" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="F17">
-        <v>2008</v>
-      </c>
-      <c r="G17" t="s">
-        <v>132</v>
+        <v>2012</v>
+      </c>
+      <c r="G17">
+        <v>2012</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="L17" t="s">
-        <v>335</v>
+        <v>293</v>
+      </c>
+      <c r="M17" t="s">
+        <v>309</v>
+      </c>
+      <c r="N17">
+        <v>45.8172</v>
+      </c>
+      <c r="O17">
+        <v>-65.610500000000002</v>
+      </c>
+      <c r="P17" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F18">
-        <v>2010</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
+        <v>2012</v>
+      </c>
+      <c r="G18">
+        <v>2012</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>344</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="L18" t="s">
-        <v>346</v>
-      </c>
-      <c r="M18">
-        <v>49.954439999999998</v>
-      </c>
-      <c r="N18">
-        <v>14.175829999999999</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>27</v>
+        <v>293</v>
+      </c>
+      <c r="M18" t="s">
+        <v>294</v>
+      </c>
+      <c r="P18" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F19">
-        <v>2010</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
+        <v>2012</v>
+      </c>
+      <c r="G19">
+        <v>2012</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>344</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="L19" t="s">
-        <v>346</v>
-      </c>
-      <c r="M19">
-        <v>49.954439999999998</v>
-      </c>
-      <c r="N19">
-        <v>14.175829999999999</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>27</v>
+        <v>293</v>
+      </c>
+      <c r="M19" t="s">
+        <v>295</v>
+      </c>
+      <c r="P19" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="F20">
-        <v>2011</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
+        <v>2012</v>
+      </c>
+      <c r="G20">
+        <v>2012</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>344</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>348</v>
-      </c>
-      <c r="M20">
-        <v>50.693460000000002</v>
-      </c>
-      <c r="N20">
-        <v>15.84652</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>27</v>
+        <v>293</v>
+      </c>
+      <c r="M20" t="s">
+        <v>294</v>
+      </c>
+      <c r="P20" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>281</v>
       </c>
       <c r="F21">
-        <v>2011</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
+        <v>2013</v>
+      </c>
+      <c r="G21">
+        <v>2013</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>344</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="L21" t="s">
-        <v>348</v>
-      </c>
-      <c r="M21">
-        <v>50.693460000000002</v>
-      </c>
-      <c r="N21">
-        <v>15.84652</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="M21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F22">
-        <v>2016</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
+        <v>2013</v>
+      </c>
+      <c r="G22">
+        <v>2013</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="L22" t="s">
-        <v>339</v>
+        <v>323</v>
+      </c>
+      <c r="M22" t="s">
+        <v>306</v>
+      </c>
+      <c r="P22" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="F23">
-        <v>2015</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
+        <v>2013</v>
+      </c>
+      <c r="G23">
+        <v>2013</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="L23" t="s">
-        <v>341</v>
+        <v>323</v>
+      </c>
+      <c r="M23" t="s">
+        <v>306</v>
+      </c>
+      <c r="P23" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="F24">
-        <v>2016</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
+        <v>2013</v>
+      </c>
+      <c r="G24">
+        <v>2013</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="L24" t="s">
-        <v>343</v>
+        <v>296</v>
+      </c>
+      <c r="M24" t="s">
+        <v>306</v>
+      </c>
+      <c r="P24" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F25">
-        <v>2015</v>
-      </c>
-      <c r="G25" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G25">
+        <v>2013</v>
+      </c>
+      <c r="H25" t="s">
         <v>43</v>
       </c>
-      <c r="H25" t="s">
-        <v>44</v>
-      </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="L25" t="s">
-        <v>350</v>
-      </c>
-      <c r="O25" t="s">
-        <v>351</v>
+        <v>293</v>
+      </c>
+      <c r="M25" t="s">
+        <v>309</v>
+      </c>
+      <c r="N25">
+        <v>45.8172</v>
+      </c>
+      <c r="O25">
+        <v>-65.610500000000002</v>
+      </c>
+      <c r="P25" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F26">
-        <v>2015</v>
-      </c>
-      <c r="G26" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G26">
+        <v>2013</v>
+      </c>
+      <c r="H26" t="s">
         <v>43</v>
       </c>
-      <c r="H26" t="s">
-        <v>44</v>
-      </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="L26" t="s">
-        <v>350</v>
-      </c>
-      <c r="O26" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="M26" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="F27">
         <v>2013</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27">
+        <v>2013</v>
+      </c>
+      <c r="H27" t="s">
         <v>43</v>
       </c>
-      <c r="H27" t="s">
-        <v>44</v>
-      </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="L27" t="s">
-        <v>335</v>
-      </c>
-      <c r="O27" t="s">
-        <v>337</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>356</v>
+        <v>293</v>
+      </c>
+      <c r="M27" t="s">
+        <v>295</v>
+      </c>
+      <c r="P27" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="F28">
         <v>2013</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28">
+        <v>2013</v>
+      </c>
+      <c r="H28" t="s">
         <v>43</v>
       </c>
-      <c r="H28" t="s">
-        <v>44</v>
-      </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s">
-        <v>335</v>
-      </c>
-      <c r="O28" t="s">
-        <v>337</v>
+        <v>293</v>
+      </c>
+      <c r="M28" t="s">
+        <v>295</v>
+      </c>
+      <c r="P28" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="F29">
         <v>2013</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29">
+        <v>2013</v>
+      </c>
+      <c r="H29" t="s">
         <v>43</v>
       </c>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="L29" t="s">
-        <v>335</v>
-      </c>
-      <c r="O29" t="s">
-        <v>337</v>
+        <v>293</v>
+      </c>
+      <c r="M29" t="s">
+        <v>309</v>
+      </c>
+      <c r="N29">
+        <v>45.8172</v>
+      </c>
+      <c r="O29">
+        <v>-65.610500000000002</v>
+      </c>
+      <c r="P29" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="D30" t="s">
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="F30">
-        <v>2015</v>
-      </c>
-      <c r="G30" t="s">
-        <v>43</v>
+        <v>2014</v>
+      </c>
+      <c r="G30">
+        <v>2014</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="L30" t="s">
-        <v>350</v>
-      </c>
-      <c r="O30" t="s">
-        <v>351</v>
+        <v>320</v>
+      </c>
+      <c r="M30" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="F31">
         <v>2015</v>
       </c>
-      <c r="G31" t="s">
-        <v>43</v>
+      <c r="G31">
+        <v>2015</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J31" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s">
-        <v>323</v>
-      </c>
-      <c r="O31" t="s">
-        <v>337</v>
+        <v>311</v>
+      </c>
+      <c r="M31" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F32">
-        <v>2012</v>
-      </c>
-      <c r="G32" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G32">
+        <v>2015</v>
+      </c>
+      <c r="H32" t="s">
         <v>43</v>
       </c>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>292</v>
+      </c>
+      <c r="L32" t="s">
+        <v>320</v>
+      </c>
+      <c r="M32" t="s">
         <v>321</v>
       </c>
-      <c r="K32" t="s">
+      <c r="P32" t="s">
         <v>322</v>
       </c>
-      <c r="L32" t="s">
-        <v>338</v>
-      </c>
-      <c r="M32">
-        <v>45.8172</v>
-      </c>
-      <c r="N32">
-        <v>-65.610500000000002</v>
-      </c>
-      <c r="O32" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="F33">
-        <v>2013</v>
-      </c>
-      <c r="G33" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G33">
+        <v>2015</v>
+      </c>
+      <c r="H33" t="s">
         <v>43</v>
       </c>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s">
+        <v>320</v>
+      </c>
+      <c r="M33" t="s">
         <v>321</v>
       </c>
-      <c r="K33" t="s">
+      <c r="P33" t="s">
         <v>322</v>
       </c>
-      <c r="L33" t="s">
-        <v>338</v>
-      </c>
-      <c r="M33">
-        <v>45.8172</v>
-      </c>
-      <c r="N33">
-        <v>-65.610500000000002</v>
-      </c>
-      <c r="O33" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F34">
-        <v>2012</v>
-      </c>
-      <c r="G34" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G34">
+        <v>2015</v>
+      </c>
+      <c r="H34" t="s">
         <v>43</v>
       </c>
-      <c r="H34" t="s">
-        <v>44</v>
-      </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>292</v>
+      </c>
+      <c r="L34" t="s">
+        <v>320</v>
+      </c>
+      <c r="M34" t="s">
         <v>321</v>
       </c>
-      <c r="K34" t="s">
+      <c r="P34" t="s">
         <v>322</v>
       </c>
-      <c r="L34" t="s">
-        <v>323</v>
-      </c>
-      <c r="O34" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F35">
-        <v>2012</v>
-      </c>
-      <c r="G35" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G35">
+        <v>2015</v>
+      </c>
+      <c r="H35" t="s">
         <v>43</v>
       </c>
-      <c r="H35" t="s">
-        <v>44</v>
-      </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s">
-        <v>324</v>
-      </c>
-      <c r="O35" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="M35" t="s">
+        <v>294</v>
+      </c>
+      <c r="P35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="F36">
-        <v>2009</v>
-      </c>
-      <c r="G36" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G36">
+        <v>2016</v>
+      </c>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>299</v>
+      </c>
+      <c r="L36" t="s">
+        <v>303</v>
+      </c>
+      <c r="M36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37">
+        <v>2016</v>
+      </c>
+      <c r="G37">
+        <v>2016</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38">
+        <v>2016</v>
+      </c>
+      <c r="G38">
+        <v>2016</v>
+      </c>
+      <c r="H38" t="s">
         <v>43</v>
       </c>
-      <c r="H36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" t="s">
-        <v>353</v>
-      </c>
-      <c r="K36" t="s">
-        <v>354</v>
-      </c>
-      <c r="L36" t="s">
-        <v>335</v>
-      </c>
-      <c r="O36" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37">
-        <v>2013</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="I38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" t="s">
+        <v>237</v>
+      </c>
+      <c r="K38" t="s">
+        <v>238</v>
+      </c>
+      <c r="L38" t="s">
+        <v>306</v>
+      </c>
+      <c r="M38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39">
+        <v>2016</v>
+      </c>
+      <c r="G39">
+        <v>2016</v>
+      </c>
+      <c r="H39" t="s">
         <v>43</v>
       </c>
-      <c r="H37" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" t="s">
-        <v>321</v>
-      </c>
-      <c r="K37" t="s">
-        <v>322</v>
-      </c>
-      <c r="L37" t="s">
-        <v>327</v>
-      </c>
-      <c r="O37" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38">
-        <v>2013</v>
-      </c>
-      <c r="G38" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" t="s">
-        <v>321</v>
-      </c>
-      <c r="K38" t="s">
-        <v>322</v>
-      </c>
-      <c r="L38" t="s">
-        <v>324</v>
-      </c>
-      <c r="O38" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39">
-        <v>2013</v>
-      </c>
-      <c r="G39" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" t="s">
-        <v>44</v>
-      </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
       <c r="K39" t="s">
-        <v>322</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s">
-        <v>324</v>
-      </c>
-      <c r="O39" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="M39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="D40" t="s">
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="F40">
-        <v>2013</v>
-      </c>
-      <c r="G40" t="s">
-        <v>43</v>
+        <v>2008</v>
+      </c>
+      <c r="G40" s="1">
+        <v>39525</v>
       </c>
       <c r="H40" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="L40" t="s">
-        <v>338</v>
-      </c>
-      <c r="M40">
-        <v>45.8172</v>
-      </c>
-      <c r="N40">
-        <v>-65.610500000000002</v>
-      </c>
-      <c r="O40" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="M40" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="D41" t="s">
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="F41">
         <v>2008</v>
       </c>
-      <c r="G41" t="s">
-        <v>43</v>
+      <c r="G41" s="1">
+        <v>39528</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>299</v>
+      </c>
+      <c r="L41" t="s">
+        <v>350</v>
+      </c>
+      <c r="M41" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42">
+        <v>2008</v>
+      </c>
+      <c r="G42" s="1">
+        <v>39539</v>
+      </c>
+      <c r="H42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>299</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43">
+        <v>2009</v>
+      </c>
+      <c r="G43" s="1">
+        <v>39840</v>
+      </c>
+      <c r="H43" t="s">
+        <v>131</v>
+      </c>
+      <c r="I43" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" t="s">
+        <v>299</v>
+      </c>
+      <c r="L43" t="s">
+        <v>351</v>
+      </c>
+      <c r="M43" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44">
+        <v>2009</v>
+      </c>
+      <c r="G44" s="1">
+        <v>39843</v>
+      </c>
+      <c r="H44" t="s">
+        <v>131</v>
+      </c>
+      <c r="I44" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L44" t="s">
+        <v>344</v>
+      </c>
+      <c r="M44" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45">
+        <v>2009</v>
+      </c>
+      <c r="G45" s="1">
+        <v>39875</v>
+      </c>
+      <c r="H45" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>299</v>
+      </c>
+      <c r="L45" t="s">
+        <v>353</v>
+      </c>
+      <c r="M45" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46">
+        <v>2009</v>
+      </c>
+      <c r="G46" s="1">
+        <v>39879</v>
+      </c>
+      <c r="H46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" t="s">
+        <v>324</v>
+      </c>
+      <c r="L46" t="s">
+        <v>325</v>
+      </c>
+      <c r="M46" t="s">
+        <v>306</v>
+      </c>
+      <c r="N46">
+        <v>51.5167</v>
+      </c>
+      <c r="O46">
+        <v>11.166700000000001</v>
+      </c>
+      <c r="R46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" t="s">
+        <v>223</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" t="s">
+        <v>224</v>
+      </c>
+      <c r="F47">
+        <v>2009</v>
+      </c>
+      <c r="G47" s="1">
+        <v>39882</v>
+      </c>
+      <c r="H47" t="s">
+        <v>194</v>
+      </c>
+      <c r="I47" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" t="s">
+        <v>299</v>
+      </c>
+      <c r="L47" t="s">
+        <v>300</v>
+      </c>
+      <c r="M47" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" t="s">
+        <v>271</v>
+      </c>
+      <c r="C48" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" t="s">
+        <v>273</v>
+      </c>
+      <c r="F48">
+        <v>2009</v>
+      </c>
+      <c r="G48" s="1">
+        <v>39884</v>
+      </c>
+      <c r="H48" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" t="s">
+        <v>347</v>
+      </c>
+      <c r="L48" t="s">
+        <v>365</v>
+      </c>
+      <c r="M48" t="s">
+        <v>364</v>
+      </c>
+      <c r="N48">
+        <v>45.1</v>
+      </c>
+      <c r="O48">
+        <v>0.7</v>
+      </c>
+      <c r="R48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49">
+        <v>2009</v>
+      </c>
+      <c r="G49" s="1">
+        <v>39897</v>
+      </c>
+      <c r="H49" t="s">
+        <v>131</v>
+      </c>
+      <c r="I49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" t="s">
+        <v>299</v>
+      </c>
+      <c r="L49" t="s">
+        <v>340</v>
+      </c>
+      <c r="M49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>213</v>
+      </c>
+      <c r="F50">
+        <v>2009</v>
+      </c>
+      <c r="G50" s="1">
+        <v>39901</v>
+      </c>
+      <c r="H50" t="s">
+        <v>131</v>
+      </c>
+      <c r="I50" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" t="s">
+        <v>336</v>
+      </c>
+      <c r="L50" t="s">
+        <v>338</v>
+      </c>
+      <c r="M50" t="s">
+        <v>306</v>
+      </c>
+      <c r="N50">
+        <v>47.145499999999998</v>
+      </c>
+      <c r="O50">
+        <v>17.622399999999999</v>
+      </c>
+      <c r="R50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51">
+        <v>2009</v>
+      </c>
+      <c r="G51" s="1">
+        <v>39904</v>
+      </c>
+      <c r="H51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I51" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" t="s">
+        <v>337</v>
+      </c>
+      <c r="L51" t="s">
+        <v>339</v>
+      </c>
+      <c r="M51" t="s">
+        <v>306</v>
+      </c>
+      <c r="N51">
+        <v>47.083329999999997</v>
+      </c>
+      <c r="O51">
+        <v>8</v>
+      </c>
+      <c r="R51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52">
+        <v>2009</v>
+      </c>
+      <c r="G52" s="1">
+        <v>39990</v>
+      </c>
+      <c r="H52" t="s">
+        <v>131</v>
+      </c>
+      <c r="I52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" t="s">
+        <v>299</v>
+      </c>
+      <c r="L52" t="s">
+        <v>342</v>
+      </c>
+      <c r="M52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>158</v>
+      </c>
+      <c r="F53">
+        <v>2009</v>
+      </c>
+      <c r="G53" s="1">
+        <v>40073</v>
+      </c>
+      <c r="H53" t="s">
+        <v>159</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" t="s">
+        <v>299</v>
+      </c>
+      <c r="L53" t="s">
+        <v>300</v>
+      </c>
+      <c r="M53" t="s">
+        <v>329</v>
+      </c>
+      <c r="P53" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="R53" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="K41" t="s">
-        <v>322</v>
-      </c>
-      <c r="L41" t="s">
-        <v>330</v>
-      </c>
-      <c r="O41" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42">
-        <v>2012</v>
-      </c>
-      <c r="G42" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" t="s">
-        <v>321</v>
-      </c>
-      <c r="K42" t="s">
-        <v>322</v>
-      </c>
-      <c r="L42" t="s">
-        <v>323</v>
-      </c>
-      <c r="O42" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B43" t="s">
-        <v>223</v>
-      </c>
-      <c r="C43" t="s">
-        <v>224</v>
-      </c>
-      <c r="D43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" t="s">
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54">
+        <v>2009</v>
+      </c>
+      <c r="G54" s="1">
+        <v>40073</v>
+      </c>
+      <c r="H54" t="s">
+        <v>159</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" t="s">
+        <v>299</v>
+      </c>
+      <c r="L54" t="s">
+        <v>300</v>
+      </c>
+      <c r="M54" t="s">
+        <v>329</v>
+      </c>
+      <c r="R54" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55">
+        <v>2009</v>
+      </c>
+      <c r="G55" s="1">
+        <v>40073</v>
+      </c>
+      <c r="H55" t="s">
+        <v>159</v>
+      </c>
+      <c r="I55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" t="s">
+        <v>299</v>
+      </c>
+      <c r="L55" t="s">
+        <v>300</v>
+      </c>
+      <c r="M55" t="s">
+        <v>329</v>
+      </c>
+      <c r="R55" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56">
+        <v>2009</v>
+      </c>
+      <c r="G56" s="1">
+        <v>40073</v>
+      </c>
+      <c r="H56" t="s">
+        <v>159</v>
+      </c>
+      <c r="I56" t="s">
+        <v>44</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" t="s">
+        <v>299</v>
+      </c>
+      <c r="L56" t="s">
+        <v>300</v>
+      </c>
+      <c r="M56" t="s">
+        <v>329</v>
+      </c>
+      <c r="R56" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" t="s">
         <v>225</v>
       </c>
-      <c r="F43" s="1">
-        <v>39901</v>
-      </c>
-      <c r="G43" t="s">
-        <v>132</v>
-      </c>
-      <c r="H43" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57">
+        <v>2010</v>
+      </c>
+      <c r="G57" s="1">
+        <v>40205</v>
+      </c>
+      <c r="H57" t="s">
+        <v>131</v>
+      </c>
+      <c r="I57" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" t="s">
+        <v>299</v>
+      </c>
+      <c r="L57" t="s">
+        <v>305</v>
+      </c>
+      <c r="M57" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58">
+        <v>2010</v>
+      </c>
+      <c r="G58" s="1">
+        <v>40217</v>
+      </c>
+      <c r="H58" t="s">
+        <v>131</v>
+      </c>
+      <c r="I58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" t="s">
+        <v>299</v>
+      </c>
+      <c r="L58" t="s">
+        <v>356</v>
+      </c>
+      <c r="M58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59">
+        <v>2010</v>
+      </c>
+      <c r="G59" s="1">
+        <v>40242</v>
+      </c>
+      <c r="H59" t="s">
+        <v>131</v>
+      </c>
+      <c r="I59" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" t="s">
+        <v>299</v>
+      </c>
+      <c r="L59" t="s">
+        <v>356</v>
+      </c>
+      <c r="M59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60">
+        <v>2010</v>
+      </c>
+      <c r="G60" s="1">
+        <v>40242</v>
+      </c>
+      <c r="H60" t="s">
+        <v>131</v>
+      </c>
+      <c r="I60" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" t="s">
+        <v>299</v>
+      </c>
+      <c r="L60" t="s">
+        <v>357</v>
+      </c>
+      <c r="M60" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61">
+        <v>2010</v>
+      </c>
+      <c r="G61" s="1">
+        <v>40248</v>
+      </c>
+      <c r="H61" t="s">
+        <v>131</v>
+      </c>
+      <c r="I61" t="s">
+        <v>44</v>
+      </c>
+      <c r="J61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" t="s">
+        <v>292</v>
+      </c>
+      <c r="L61" t="s">
+        <v>320</v>
+      </c>
+      <c r="M61" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" t="s">
+        <v>230</v>
+      </c>
+      <c r="F62">
+        <v>2010</v>
+      </c>
+      <c r="G62" s="1">
+        <v>40252</v>
+      </c>
+      <c r="H62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" t="s">
+        <v>292</v>
+      </c>
+      <c r="L62" t="s">
+        <v>320</v>
+      </c>
+      <c r="M62" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" t="s">
+        <v>233</v>
+      </c>
+      <c r="E63" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63">
+        <v>2010</v>
+      </c>
+      <c r="G63" s="1">
+        <v>40275</v>
+      </c>
+      <c r="H63" t="s">
+        <v>131</v>
+      </c>
+      <c r="I63" t="s">
+        <v>44</v>
+      </c>
+      <c r="J63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" t="s">
+        <v>299</v>
+      </c>
+      <c r="L63" t="s">
+        <v>356</v>
+      </c>
+      <c r="M63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>255</v>
+      </c>
+      <c r="B64" t="s">
+        <v>256</v>
+      </c>
+      <c r="C64" t="s">
+        <v>257</v>
+      </c>
+      <c r="D64" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" t="s">
+        <v>258</v>
+      </c>
+      <c r="F64">
+        <v>2011</v>
+      </c>
+      <c r="G64" s="1">
+        <v>40566</v>
+      </c>
+      <c r="H64" t="s">
+        <v>194</v>
+      </c>
+      <c r="I64" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" t="s">
+        <v>299</v>
+      </c>
+      <c r="L64" t="s">
+        <v>358</v>
+      </c>
+      <c r="M64" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" t="s">
+        <v>244</v>
+      </c>
+      <c r="F65">
+        <v>2011</v>
+      </c>
+      <c r="G65" s="1">
+        <v>40572</v>
+      </c>
+      <c r="H65" t="s">
+        <v>131</v>
+      </c>
+      <c r="I65" t="s">
+        <v>44</v>
+      </c>
+      <c r="J65" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" t="s">
+        <v>299</v>
+      </c>
+      <c r="L65" t="s">
+        <v>358</v>
+      </c>
+      <c r="M65" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" t="s">
+        <v>267</v>
+      </c>
+      <c r="D66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" t="s">
+        <v>268</v>
+      </c>
+      <c r="F66">
+        <v>2011</v>
+      </c>
+      <c r="G66" s="1">
+        <v>40577</v>
+      </c>
+      <c r="H66" t="s">
+        <v>118</v>
+      </c>
+      <c r="I66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" t="s">
         <v>26</v>
       </c>
-      <c r="L43" t="s">
-        <v>226</v>
-      </c>
-      <c r="M43">
-        <v>47.145499999999998</v>
-      </c>
-      <c r="N43">
-        <v>17.622399999999999</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="K66" t="s">
+        <v>269</v>
+      </c>
+      <c r="L66" t="s">
+        <v>306</v>
+      </c>
+      <c r="M66" t="s">
+        <v>306</v>
+      </c>
+      <c r="N66">
+        <v>50.45</v>
+      </c>
+      <c r="O66">
+        <v>30.5</v>
+      </c>
+      <c r="R66" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" s="1">
-        <v>39879</v>
-      </c>
-      <c r="G44" t="s">
-        <v>132</v>
-      </c>
-      <c r="H44" t="s">
-        <v>44</v>
-      </c>
-      <c r="I44" t="s">
-        <v>26</v>
-      </c>
-      <c r="L44" t="s">
-        <v>174</v>
-      </c>
-      <c r="M44">
-        <v>51.5167</v>
-      </c>
-      <c r="N44">
-        <v>11.166700000000001</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" t="s">
-        <v>177</v>
-      </c>
-      <c r="F45" s="1">
-        <v>39904</v>
-      </c>
-      <c r="G45" t="s">
-        <v>132</v>
-      </c>
-      <c r="H45" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" t="s">
-        <v>26</v>
-      </c>
-      <c r="L45" t="s">
-        <v>178</v>
-      </c>
-      <c r="M45">
-        <v>47.083329999999997</v>
-      </c>
-      <c r="N45">
-        <v>8</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F46" s="1">
-        <v>39897</v>
-      </c>
-      <c r="G46" t="s">
-        <v>132</v>
-      </c>
-      <c r="H46" t="s">
-        <v>44</v>
-      </c>
-      <c r="I46" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" s="1">
-        <v>39990</v>
-      </c>
-      <c r="G47" t="s">
-        <v>132</v>
-      </c>
-      <c r="H47" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" s="1">
-        <v>39843</v>
-      </c>
-      <c r="G48" t="s">
-        <v>132</v>
-      </c>
-      <c r="H48" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>189</v>
-      </c>
-      <c r="B49" t="s">
-        <v>191</v>
-      </c>
-      <c r="C49" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" t="s">
-        <v>193</v>
-      </c>
-      <c r="F49" s="1">
-        <v>40248</v>
-      </c>
-      <c r="G49" t="s">
-        <v>132</v>
-      </c>
-      <c r="H49" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" t="s">
-        <v>196</v>
-      </c>
-      <c r="D50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F50" s="1">
-        <v>40242</v>
-      </c>
-      <c r="G50" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" t="s">
-        <v>44</v>
-      </c>
-      <c r="I50" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" t="s">
-        <v>199</v>
-      </c>
-      <c r="C51" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" s="1">
-        <v>39525</v>
-      </c>
-      <c r="G51" t="s">
-        <v>202</v>
-      </c>
-      <c r="H51" t="s">
-        <v>44</v>
-      </c>
-      <c r="I51" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" t="s">
-        <v>204</v>
-      </c>
-      <c r="C52" t="s">
-        <v>205</v>
-      </c>
-      <c r="D52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" t="s">
-        <v>206</v>
-      </c>
-      <c r="F52" s="1">
-        <v>39840</v>
-      </c>
-      <c r="G52" t="s">
-        <v>132</v>
-      </c>
-      <c r="H52" t="s">
-        <v>44</v>
-      </c>
-      <c r="I52" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>206</v>
-      </c>
-      <c r="B53" t="s">
-        <v>208</v>
-      </c>
-      <c r="C53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" t="s">
-        <v>210</v>
-      </c>
-      <c r="F53" s="1">
-        <v>39875</v>
-      </c>
-      <c r="G53" t="s">
-        <v>132</v>
-      </c>
-      <c r="H53" t="s">
-        <v>44</v>
-      </c>
-      <c r="I53" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" t="s">
-        <v>212</v>
-      </c>
-      <c r="C54" t="s">
-        <v>213</v>
-      </c>
-      <c r="D54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" t="s">
-        <v>214</v>
-      </c>
-      <c r="F54" s="1">
-        <v>39528</v>
-      </c>
-      <c r="G54" t="s">
-        <v>132</v>
-      </c>
-      <c r="H54" t="s">
-        <v>44</v>
-      </c>
-      <c r="I54" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>214</v>
-      </c>
-      <c r="B55" t="s">
-        <v>227</v>
-      </c>
-      <c r="C55" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" t="s">
-        <v>229</v>
-      </c>
-      <c r="F55" s="1">
-        <v>39539</v>
-      </c>
-      <c r="G55" t="s">
-        <v>132</v>
-      </c>
-      <c r="H55" t="s">
-        <v>44</v>
-      </c>
-      <c r="I55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>218</v>
-      </c>
-      <c r="B56" t="s">
-        <v>230</v>
-      </c>
-      <c r="C56" t="s">
-        <v>231</v>
-      </c>
-      <c r="D56" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" t="s">
-        <v>232</v>
-      </c>
-      <c r="F56" s="1">
-        <v>40217</v>
-      </c>
-      <c r="G56" t="s">
-        <v>132</v>
-      </c>
-      <c r="H56" t="s">
-        <v>44</v>
-      </c>
-      <c r="I56" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" t="s">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>221</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="E67" t="s">
+        <v>241</v>
+      </c>
+      <c r="F67">
+        <v>2011</v>
+      </c>
+      <c r="G67" s="1">
+        <v>40583</v>
+      </c>
+      <c r="H67" t="s">
+        <v>131</v>
+      </c>
+      <c r="I67" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" t="s">
+        <v>299</v>
+      </c>
+      <c r="L67" t="s">
+        <v>356</v>
+      </c>
+      <c r="M67" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" t="s">
+        <v>248</v>
+      </c>
+      <c r="C68" t="s">
+        <v>249</v>
+      </c>
+      <c r="D68" t="s">
+        <v>233</v>
+      </c>
+      <c r="E68" t="s">
         <v>234</v>
       </c>
-      <c r="C57" t="s">
-        <v>235</v>
-      </c>
-      <c r="D57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="F68">
+        <v>2011</v>
+      </c>
+      <c r="G68" s="1">
+        <v>40590</v>
+      </c>
+      <c r="H68" t="s">
         <v>131</v>
       </c>
-      <c r="F57" s="1">
-        <v>40242</v>
-      </c>
-      <c r="G57" t="s">
-        <v>132</v>
-      </c>
-      <c r="H57" t="s">
-        <v>44</v>
-      </c>
-      <c r="I57" t="s">
-        <v>21</v>
-      </c>
-      <c r="L57" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>225</v>
-      </c>
-      <c r="B58" t="s">
-        <v>237</v>
-      </c>
-      <c r="C58" t="s">
-        <v>238</v>
-      </c>
-      <c r="D58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" t="s">
-        <v>239</v>
-      </c>
-      <c r="F58" s="1">
-        <v>39882</v>
-      </c>
-      <c r="G58" t="s">
-        <v>202</v>
-      </c>
-      <c r="H58" t="s">
-        <v>44</v>
-      </c>
-      <c r="I58" t="s">
-        <v>21</v>
-      </c>
-      <c r="L58" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>136</v>
-      </c>
-      <c r="B59" t="s">
-        <v>241</v>
-      </c>
-      <c r="C59" t="s">
-        <v>242</v>
-      </c>
-      <c r="D59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" t="s">
-        <v>243</v>
-      </c>
-      <c r="F59" s="1">
-        <v>40205</v>
-      </c>
-      <c r="G59" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" t="s">
-        <v>44</v>
-      </c>
-      <c r="I59" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" t="s">
-        <v>245</v>
-      </c>
-      <c r="C60" t="s">
-        <v>246</v>
-      </c>
-      <c r="D60" t="s">
-        <v>52</v>
-      </c>
-      <c r="E60" t="s">
-        <v>247</v>
-      </c>
-      <c r="F60" s="1">
-        <v>40252</v>
-      </c>
-      <c r="G60" t="s">
-        <v>132</v>
-      </c>
-      <c r="H60" t="s">
-        <v>44</v>
-      </c>
-      <c r="I60" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>144</v>
-      </c>
-      <c r="B61" t="s">
-        <v>249</v>
-      </c>
-      <c r="C61" t="s">
-        <v>250</v>
-      </c>
-      <c r="D61" t="s">
-        <v>251</v>
-      </c>
-      <c r="E61" t="s">
-        <v>252</v>
-      </c>
-      <c r="F61" s="1">
-        <v>40275</v>
-      </c>
-      <c r="G61" t="s">
-        <v>132</v>
-      </c>
-      <c r="H61" t="s">
-        <v>44</v>
-      </c>
-      <c r="I61" t="s">
-        <v>21</v>
-      </c>
-      <c r="L61" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" t="s">
-        <v>254</v>
-      </c>
-      <c r="C62" t="s">
-        <v>255</v>
-      </c>
-      <c r="D62" t="s">
-        <v>251</v>
-      </c>
-      <c r="E62" t="s">
-        <v>252</v>
-      </c>
-      <c r="F62">
-        <v>2016</v>
-      </c>
-      <c r="G62" t="s">
-        <v>43</v>
-      </c>
-      <c r="H62" t="s">
-        <v>44</v>
-      </c>
-      <c r="I62" t="s">
-        <v>256</v>
-      </c>
-      <c r="L62" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>155</v>
-      </c>
-      <c r="B63" t="s">
-        <v>258</v>
-      </c>
-      <c r="C63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D63" t="s">
-        <v>251</v>
-      </c>
-      <c r="E63" t="s">
-        <v>260</v>
-      </c>
-      <c r="F63">
-        <v>2016</v>
-      </c>
-      <c r="G63" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" t="s">
-        <v>44</v>
-      </c>
-      <c r="I63" t="s">
-        <v>256</v>
-      </c>
-      <c r="L63" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" t="s">
-        <v>261</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="I68" t="s">
+        <v>44</v>
+      </c>
+      <c r="J68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" t="s">
+        <v>299</v>
+      </c>
+      <c r="L68" t="s">
+        <v>353</v>
+      </c>
+      <c r="M68" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" t="s">
         <v>262</v>
       </c>
-      <c r="D64" t="s">
-        <v>251</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C69" t="s">
         <v>263</v>
       </c>
-      <c r="F64" s="1">
-        <v>41011</v>
-      </c>
-      <c r="G64" t="s">
-        <v>132</v>
-      </c>
-      <c r="H64" t="s">
-        <v>44</v>
-      </c>
-      <c r="I64" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="D69" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" t="s">
         <v>264</v>
       </c>
-      <c r="C65" t="s">
-        <v>265</v>
-      </c>
-      <c r="D65" t="s">
-        <v>251</v>
-      </c>
-      <c r="E65" t="s">
-        <v>252</v>
-      </c>
-      <c r="F65" s="1">
-        <v>40987</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="F69">
+        <v>2011</v>
+      </c>
+      <c r="G69" s="1">
+        <v>40889</v>
+      </c>
+      <c r="H69" t="s">
         <v>118</v>
       </c>
-      <c r="H65" t="s">
-        <v>44</v>
-      </c>
-      <c r="I65" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>267</v>
-      </c>
-      <c r="B66" t="s">
-        <v>268</v>
-      </c>
-      <c r="C66" t="s">
-        <v>269</v>
-      </c>
-      <c r="D66" t="s">
-        <v>251</v>
-      </c>
-      <c r="E66" t="s">
-        <v>252</v>
-      </c>
-      <c r="F66" s="1">
-        <v>40590</v>
-      </c>
-      <c r="G66" t="s">
-        <v>132</v>
-      </c>
-      <c r="H66" t="s">
-        <v>44</v>
-      </c>
-      <c r="I66" t="s">
-        <v>21</v>
-      </c>
-      <c r="L66" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" t="s">
-        <v>271</v>
-      </c>
-      <c r="C67" t="s">
-        <v>272</v>
-      </c>
-      <c r="D67" t="s">
-        <v>251</v>
-      </c>
-      <c r="E67" t="s">
-        <v>260</v>
-      </c>
-      <c r="F67" s="1">
-        <v>40583</v>
-      </c>
-      <c r="G67" t="s">
-        <v>132</v>
-      </c>
-      <c r="H67" t="s">
-        <v>44</v>
-      </c>
-      <c r="I67" t="s">
-        <v>21</v>
-      </c>
-      <c r="L67" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>273</v>
-      </c>
-      <c r="B68" t="s">
-        <v>274</v>
-      </c>
-      <c r="C68" t="s">
-        <v>275</v>
-      </c>
-      <c r="D68" t="s">
-        <v>251</v>
-      </c>
-      <c r="E68" t="s">
-        <v>263</v>
-      </c>
-      <c r="F68" s="1">
-        <v>40572</v>
-      </c>
-      <c r="G68" t="s">
-        <v>132</v>
-      </c>
-      <c r="H68" t="s">
-        <v>44</v>
-      </c>
-      <c r="I68" t="s">
-        <v>21</v>
-      </c>
-      <c r="L68" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>277</v>
-      </c>
-      <c r="B69" t="s">
-        <v>278</v>
-      </c>
-      <c r="C69" t="s">
-        <v>279</v>
-      </c>
-      <c r="D69" t="s">
-        <v>251</v>
-      </c>
-      <c r="E69" t="s">
-        <v>280</v>
-      </c>
-      <c r="F69" s="1">
-        <v>40566</v>
-      </c>
-      <c r="G69" t="s">
-        <v>202</v>
-      </c>
-      <c r="H69" t="s">
-        <v>44</v>
-      </c>
       <c r="I69" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="J69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
+        <v>299</v>
       </c>
       <c r="L69" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+      <c r="M69" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>282</v>
       </c>
@@ -4563,142 +5115,160 @@
         <v>284</v>
       </c>
       <c r="D70" t="s">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>280</v>
-      </c>
-      <c r="F70" s="1">
+        <v>285</v>
+      </c>
+      <c r="F70">
+        <v>2012</v>
+      </c>
+      <c r="G70" s="1">
+        <v>40967</v>
+      </c>
+      <c r="H70" t="s">
+        <v>118</v>
+      </c>
+      <c r="I70" t="s">
+        <v>44</v>
+      </c>
+      <c r="J70" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" t="s">
+        <v>292</v>
+      </c>
+      <c r="L70" t="s">
+        <v>293</v>
+      </c>
+      <c r="M70" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71" t="s">
+        <v>260</v>
+      </c>
+      <c r="C71" t="s">
+        <v>261</v>
+      </c>
+      <c r="D71" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" t="s">
+        <v>258</v>
+      </c>
+      <c r="F71">
+        <v>2012</v>
+      </c>
+      <c r="G71" s="1">
         <v>40969</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H71" t="s">
         <v>118</v>
       </c>
-      <c r="H70" t="s">
-        <v>44</v>
-      </c>
-      <c r="I70" t="s">
-        <v>21</v>
-      </c>
-      <c r="L70" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>229</v>
-      </c>
-      <c r="B71" t="s">
-        <v>286</v>
-      </c>
-      <c r="C71" t="s">
-        <v>287</v>
-      </c>
-      <c r="D71" t="s">
-        <v>52</v>
-      </c>
-      <c r="E71" t="s">
-        <v>288</v>
-      </c>
-      <c r="F71" s="1">
-        <v>40889</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="I71" t="s">
+        <v>44</v>
+      </c>
+      <c r="J71" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" t="s">
+        <v>299</v>
+      </c>
+      <c r="L71" t="s">
+        <v>360</v>
+      </c>
+      <c r="M71" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" t="s">
+        <v>234</v>
+      </c>
+      <c r="F72">
+        <v>2012</v>
+      </c>
+      <c r="G72" s="1">
+        <v>40987</v>
+      </c>
+      <c r="H72" t="s">
         <v>118</v>
       </c>
-      <c r="H71" t="s">
-        <v>44</v>
-      </c>
-      <c r="I71" t="s">
-        <v>21</v>
-      </c>
-      <c r="L71" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>290</v>
-      </c>
-      <c r="B72" t="s">
-        <v>291</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="I72" t="s">
+        <v>44</v>
+      </c>
+      <c r="J72" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" t="s">
+        <v>299</v>
+      </c>
+      <c r="L72" t="s">
+        <v>361</v>
+      </c>
+      <c r="M72" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" t="s">
+        <v>242</v>
+      </c>
+      <c r="C73" t="s">
+        <v>243</v>
+      </c>
+      <c r="D73" t="s">
+        <v>233</v>
+      </c>
+      <c r="E73" t="s">
+        <v>244</v>
+      </c>
+      <c r="F73">
+        <v>2012</v>
+      </c>
+      <c r="G73" s="1">
+        <v>41011</v>
+      </c>
+      <c r="H73" t="s">
+        <v>131</v>
+      </c>
+      <c r="I73" t="s">
+        <v>44</v>
+      </c>
+      <c r="J73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" t="s">
         <v>292</v>
       </c>
-      <c r="D72" t="s">
-        <v>52</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="L73" t="s">
         <v>293</v>
       </c>
-      <c r="F72" s="1">
-        <v>40577</v>
-      </c>
-      <c r="G72" t="s">
-        <v>118</v>
-      </c>
-      <c r="H72" t="s">
-        <v>44</v>
-      </c>
-      <c r="I72" t="s">
-        <v>26</v>
-      </c>
-      <c r="L72" t="s">
-        <v>294</v>
-      </c>
-      <c r="M72">
-        <v>50.45</v>
-      </c>
-      <c r="N72">
-        <v>30.5</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>295</v>
-      </c>
-      <c r="B73" t="s">
-        <v>296</v>
-      </c>
-      <c r="C73" t="s">
-        <v>297</v>
-      </c>
-      <c r="D73" t="s">
-        <v>52</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="M73" t="s">
         <v>298</v>
       </c>
-      <c r="F73" s="1">
-        <v>39884</v>
-      </c>
-      <c r="G73" t="s">
-        <v>118</v>
-      </c>
-      <c r="H73" t="s">
-        <v>44</v>
-      </c>
-      <c r="I73" t="s">
-        <v>26</v>
-      </c>
-      <c r="L73" t="s">
-        <v>299</v>
-      </c>
-      <c r="M73">
-        <v>45.1</v>
-      </c>
-      <c r="N73">
-        <v>0.7</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>114</v>
       </c>
@@ -4714,70 +5284,79 @@
       <c r="E74" t="s">
         <v>117</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74">
+        <v>2012</v>
+      </c>
+      <c r="G74" s="1">
         <v>41011</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>118</v>
       </c>
-      <c r="H74" t="s">
-        <v>44</v>
-      </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="L74" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="M74" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" t="s">
         <v>120</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>121</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" t="s">
         <v>122</v>
       </c>
-      <c r="D75" t="s">
-        <v>52</v>
-      </c>
-      <c r="E75" t="s">
-        <v>123</v>
-      </c>
-      <c r="F75" s="1">
+      <c r="F75">
+        <v>2012</v>
+      </c>
+      <c r="G75" s="1">
         <v>41013</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>118</v>
       </c>
-      <c r="H75" t="s">
-        <v>44</v>
-      </c>
       <c r="I75" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J75" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="K75" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="L75" t="s">
-        <v>326</v>
+        <v>296</v>
+      </c>
+      <c r="M75" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q53" r:id="rId1" xr:uid="{284B8577-A355-764F-BF48-D4997E30226F}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/01_pd-samples/25_10-16_pd_samples-edited.xlsx
+++ b/data/01_pd-samples/25_10-16_pd_samples-edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caprinapugliese/Documents/School/Uconn/2024-26_Grad_School/Dagilis-lab/WNS-project/data/01_pd-samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A8E7AB-815B-E44B-9F75-2F2211CEF071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ACBA1A-8ADF-CA49-B015-C45FE1274648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4520" yWindow="560" windowWidth="23220" windowHeight="17440" xr2:uid="{D99E271A-162C-F24C-8D0E-BBA6ED327C07}"/>
   </bookViews>
@@ -1717,7 +1717,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90C14361-2949-B74A-BFF6-1CEFD0790204}" name="Table1" displayName="Table1" ref="A1:R75" totalsRowShown="0">
   <autoFilter ref="A1:R75" xr:uid="{90C14361-2949-B74A-BFF6-1CEFD0790204}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R75">
-    <sortCondition ref="G1:G75"/>
+    <sortCondition ref="B1:B75"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{30EFF156-3D30-484A-8AD7-EA85D1CE06B4}" name="sample_id"/>
@@ -2141,31 +2141,31 @@
     </row>
     <row r="2" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>1960</v>
+        <v>2016</v>
       </c>
       <c r="G2">
-        <v>1960</v>
+        <v>2016</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -2177,200 +2177,233 @@
         <v>303</v>
       </c>
       <c r="M2" t="s">
-        <v>306</v>
-      </c>
-      <c r="R2" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G3">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="L3" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="M3" t="s">
-        <v>306</v>
+        <v>317</v>
+      </c>
+      <c r="N3">
+        <v>49.954439999999998</v>
+      </c>
+      <c r="O3">
+        <v>14.175829999999999</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="L4" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="M4" t="s">
-        <v>329</v>
+        <v>317</v>
+      </c>
+      <c r="N4">
+        <v>49.954439999999998</v>
+      </c>
+      <c r="O4">
+        <v>14.175829999999999</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="G5">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="H5" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="L5" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="M5" t="s">
-        <v>306</v>
+        <v>319</v>
+      </c>
+      <c r="N5">
+        <v>50.693460000000002</v>
+      </c>
+      <c r="O5">
+        <v>15.84652</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="G6">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="L6" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="M6" t="s">
-        <v>306</v>
+        <v>319</v>
+      </c>
+      <c r="N6">
+        <v>50.693460000000002</v>
+      </c>
+      <c r="O6">
+        <v>15.84652</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="G7">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="H7" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -2379,80 +2412,86 @@
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="M7" t="s">
-        <v>306</v>
+        <v>321</v>
+      </c>
+      <c r="P7" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="F8">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="G8">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L8" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="M8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="P8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="F9">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="G9">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
         <v>44</v>
@@ -2461,36 +2500,42 @@
         <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L9" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="M9" t="s">
         <v>306</v>
       </c>
+      <c r="P9" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="F10">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="G10">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
@@ -2502,39 +2547,39 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L10" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="M10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P10" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F11">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="G11">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="H11" t="s">
         <v>43</v>
@@ -2543,236 +2588,224 @@
         <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="L11" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="M11" t="s">
         <v>306</v>
       </c>
       <c r="P11" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F12">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="G12">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="L12" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M12" t="s">
-        <v>317</v>
-      </c>
-      <c r="N12">
-        <v>49.954439999999998</v>
-      </c>
-      <c r="O12">
-        <v>14.175829999999999</v>
-      </c>
-      <c r="R12" t="s">
-        <v>27</v>
+        <v>321</v>
+      </c>
+      <c r="P12" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F13">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="G13">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="L13" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="M13" t="s">
-        <v>317</v>
-      </c>
-      <c r="N13">
-        <v>49.954439999999998</v>
-      </c>
-      <c r="O13">
-        <v>14.175829999999999</v>
-      </c>
-      <c r="R13" t="s">
-        <v>27</v>
+        <v>294</v>
+      </c>
+      <c r="P13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F14">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G14">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="L14" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="M14" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="N14">
-        <v>50.693460000000002</v>
+        <v>45.8172</v>
       </c>
       <c r="O14">
-        <v>15.84652</v>
-      </c>
-      <c r="R14" t="s">
-        <v>27</v>
+        <v>-65.610500000000002</v>
+      </c>
+      <c r="P14" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F15">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G15">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="L15" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="M15" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="N15">
-        <v>50.693460000000002</v>
+        <v>45.8172</v>
       </c>
       <c r="O15">
-        <v>15.84652</v>
-      </c>
-      <c r="R15" t="s">
-        <v>27</v>
+        <v>-65.610500000000002</v>
+      </c>
+      <c r="P15" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="F16">
         <v>2012</v>
@@ -2781,7 +2814,7 @@
         <v>2012</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
         <v>44</v>
@@ -2796,24 +2829,27 @@
         <v>293</v>
       </c>
       <c r="M16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="P16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F17">
         <v>2012</v>
@@ -2837,39 +2873,33 @@
         <v>293</v>
       </c>
       <c r="M17" t="s">
-        <v>309</v>
-      </c>
-      <c r="N17">
-        <v>45.8172</v>
-      </c>
-      <c r="O17">
-        <v>-65.610500000000002</v>
+        <v>295</v>
       </c>
       <c r="P17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F18">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="G18">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
@@ -2878,42 +2908,42 @@
         <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="L18" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="M18" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="P18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H19" t="s">
         <v>43</v>
@@ -2931,33 +2961,33 @@
         <v>293</v>
       </c>
       <c r="M19" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P19" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F20">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G20">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
@@ -2975,27 +3005,27 @@
         <v>293</v>
       </c>
       <c r="M20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P20" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>281</v>
+        <v>101</v>
       </c>
       <c r="F21">
         <v>2013</v>
@@ -3004,7 +3034,7 @@
         <v>2013</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
         <v>44</v>
@@ -3016,27 +3046,30 @@
         <v>292</v>
       </c>
       <c r="L21" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="M21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="P21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F22">
         <v>2013</v>
@@ -3057,39 +3090,42 @@
         <v>292</v>
       </c>
       <c r="L22" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="M22" t="s">
-        <v>306</v>
+        <v>309</v>
+      </c>
+      <c r="N22">
+        <v>45.8172</v>
+      </c>
+      <c r="O22">
+        <v>-65.610500000000002</v>
       </c>
       <c r="P22" t="s">
         <v>308</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="F23">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="G23">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="H23" t="s">
         <v>43</v>
@@ -3101,39 +3137,39 @@
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L23" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="M23" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P23" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F24">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G24">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H24" t="s">
         <v>43</v>
@@ -3148,39 +3184,39 @@
         <v>292</v>
       </c>
       <c r="L24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M24" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="P24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="F25">
-        <v>2013</v>
-      </c>
-      <c r="G25">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="G25" s="1">
+        <v>41011</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I25" t="s">
         <v>44</v>
@@ -3195,42 +3231,33 @@
         <v>293</v>
       </c>
       <c r="M25" t="s">
-        <v>309</v>
-      </c>
-      <c r="N25">
-        <v>45.8172</v>
-      </c>
-      <c r="O25">
-        <v>-65.610500000000002</v>
-      </c>
-      <c r="P25" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="F26">
-        <v>2013</v>
-      </c>
-      <c r="G26">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="G26" s="1">
+        <v>41013</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I26" t="s">
         <v>44</v>
@@ -3242,39 +3269,36 @@
         <v>292</v>
       </c>
       <c r="L26" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M26" t="s">
-        <v>298</v>
-      </c>
-      <c r="P26" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="F27">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="G27">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I27" t="s">
         <v>44</v>
@@ -3283,42 +3307,39 @@
         <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L27" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M27" t="s">
-        <v>295</v>
-      </c>
-      <c r="P27" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="F28">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="G28">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
         <v>44</v>
@@ -3327,42 +3348,39 @@
         <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L28" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="M28" t="s">
-        <v>295</v>
-      </c>
-      <c r="P28" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="F29">
-        <v>2013</v>
+        <v>1960</v>
       </c>
       <c r="G29">
-        <v>2013</v>
+        <v>1960</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I29" t="s">
         <v>44</v>
@@ -3371,45 +3389,39 @@
         <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="M29" t="s">
-        <v>309</v>
-      </c>
-      <c r="N29">
-        <v>45.8172</v>
-      </c>
-      <c r="O29">
-        <v>-65.610500000000002</v>
-      </c>
-      <c r="P29" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="R29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>274</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>277</v>
+        <v>139</v>
       </c>
       <c r="F30">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="G30">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="H30" t="s">
         <v>118</v>
@@ -3424,39 +3436,39 @@
         <v>292</v>
       </c>
       <c r="L30" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="F31">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="G31">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
@@ -3465,36 +3477,36 @@
         <v>299</v>
       </c>
       <c r="L31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M31" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="F32">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="G32">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I32" t="s">
         <v>44</v>
@@ -3503,42 +3515,39 @@
         <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s">
-        <v>321</v>
-      </c>
-      <c r="P32" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="F33">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="G33">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I33" t="s">
         <v>44</v>
@@ -3547,130 +3556,130 @@
         <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="M33" t="s">
-        <v>321</v>
-      </c>
-      <c r="P33" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="F34">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="G34">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J34" t="s">
         <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s">
-        <v>321</v>
-      </c>
-      <c r="P34" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="F35">
-        <v>2015</v>
-      </c>
-      <c r="G35">
-        <v>2015</v>
+        <v>2009</v>
+      </c>
+      <c r="G35" s="1">
+        <v>40073</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s">
         <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="P35" t="s">
-        <v>308</v>
+        <v>331</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="F36">
-        <v>2016</v>
-      </c>
-      <c r="G36">
-        <v>2016</v>
+        <v>2009</v>
+      </c>
+      <c r="G36" s="1">
+        <v>40073</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="I36" t="s">
         <v>20</v>
@@ -3682,39 +3691,42 @@
         <v>299</v>
       </c>
       <c r="L36" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s">
-        <v>310</v>
+        <v>329</v>
+      </c>
+      <c r="R36" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="F37">
-        <v>2016</v>
-      </c>
-      <c r="G37">
-        <v>2016</v>
+        <v>2009</v>
+      </c>
+      <c r="G37" s="1">
+        <v>40073</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s">
         <v>21</v>
@@ -3723,156 +3735,180 @@
         <v>299</v>
       </c>
       <c r="L37" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="M37" t="s">
-        <v>314</v>
+        <v>329</v>
+      </c>
+      <c r="R37" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="C38" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="F38">
-        <v>2016</v>
-      </c>
-      <c r="G38">
-        <v>2016</v>
+        <v>2009</v>
+      </c>
+      <c r="G38" s="1">
+        <v>40073</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="I38" t="s">
         <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s">
-        <v>238</v>
+        <v>329</v>
+      </c>
+      <c r="R38" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>240</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c r="F39">
-        <v>2016</v>
-      </c>
-      <c r="G39">
-        <v>2016</v>
+        <v>2009</v>
+      </c>
+      <c r="G39" s="1">
+        <v>39879</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="I39" t="s">
         <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="K39" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="L39" t="s">
+        <v>325</v>
+      </c>
+      <c r="M39" t="s">
         <v>306</v>
       </c>
-      <c r="M39" t="s">
-        <v>238</v>
+      <c r="N39">
+        <v>51.5167</v>
+      </c>
+      <c r="O39">
+        <v>11.166700000000001</v>
+      </c>
+      <c r="R39" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D40" t="s">
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="F40">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G40" s="1">
-        <v>39525</v>
+        <v>39904</v>
       </c>
       <c r="H40" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="I40" t="s">
         <v>44</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K40" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="L40" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="M40" t="s">
-        <v>362</v>
+        <v>306</v>
+      </c>
+      <c r="N40">
+        <v>47.083329999999997</v>
+      </c>
+      <c r="O40">
+        <v>8</v>
+      </c>
+      <c r="R40" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B41" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D41" t="s">
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="F41">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G41" s="1">
-        <v>39528</v>
+        <v>39897</v>
       </c>
       <c r="H41" t="s">
         <v>131</v>
@@ -3887,33 +3923,33 @@
         <v>299</v>
       </c>
       <c r="L41" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="F42">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G42" s="1">
-        <v>39539</v>
+        <v>39990</v>
       </c>
       <c r="H42" t="s">
         <v>131</v>
@@ -3928,33 +3964,33 @@
         <v>299</v>
       </c>
       <c r="L42" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D43" t="s">
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F43">
         <v>2009</v>
       </c>
       <c r="G43" s="1">
-        <v>39840</v>
+        <v>39843</v>
       </c>
       <c r="H43" t="s">
         <v>131</v>
@@ -3969,33 +4005,33 @@
         <v>299</v>
       </c>
       <c r="L43" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D44" t="s">
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F44">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G44" s="1">
-        <v>39843</v>
+        <v>40248</v>
       </c>
       <c r="H44" t="s">
         <v>131</v>
@@ -4007,36 +4043,36 @@
         <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L44" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="M44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D45" t="s">
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F45">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G45" s="1">
-        <v>39875</v>
+        <v>40242</v>
       </c>
       <c r="H45" t="s">
         <v>131</v>
@@ -4051,86 +4087,77 @@
         <v>299</v>
       </c>
       <c r="L45" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="F46">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G46" s="1">
-        <v>39879</v>
+        <v>39525</v>
       </c>
       <c r="H46" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="I46" t="s">
         <v>44</v>
       </c>
       <c r="J46" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="L46" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="M46" t="s">
-        <v>306</v>
-      </c>
-      <c r="N46">
-        <v>51.5167</v>
-      </c>
-      <c r="O46">
-        <v>11.166700000000001</v>
-      </c>
-      <c r="R46" t="s">
-        <v>27</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B47" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="F47">
         <v>2009</v>
       </c>
       <c r="G47" s="1">
-        <v>39882</v>
+        <v>39840</v>
       </c>
       <c r="H47" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="I47" t="s">
         <v>44</v>
@@ -4142,83 +4169,74 @@
         <v>299</v>
       </c>
       <c r="L47" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="M47" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="B48" t="s">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="C48" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="D48" t="s">
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c r="F48">
         <v>2009</v>
       </c>
       <c r="G48" s="1">
-        <v>39884</v>
+        <v>39875</v>
       </c>
       <c r="H48" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="I48" t="s">
         <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="L48" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M48" t="s">
-        <v>364</v>
-      </c>
-      <c r="N48">
-        <v>45.1</v>
-      </c>
-      <c r="O48">
-        <v>0.7</v>
-      </c>
-      <c r="R48" t="s">
-        <v>27</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="F49">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G49" s="1">
-        <v>39897</v>
+        <v>39528</v>
       </c>
       <c r="H49" t="s">
         <v>131</v>
@@ -4233,133 +4251,115 @@
         <v>299</v>
       </c>
       <c r="L49" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M49" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F50">
-        <v>2009</v>
-      </c>
-      <c r="G50" s="1">
-        <v>39901</v>
+        <v>2015</v>
+      </c>
+      <c r="G50">
+        <v>2015</v>
       </c>
       <c r="H50" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="L50" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="M50" t="s">
-        <v>306</v>
-      </c>
-      <c r="N50">
-        <v>47.145499999999998</v>
-      </c>
-      <c r="O50">
-        <v>17.622399999999999</v>
-      </c>
-      <c r="R50" t="s">
-        <v>27</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D51" t="s">
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="F51">
-        <v>2009</v>
-      </c>
-      <c r="G51" s="1">
-        <v>39904</v>
+        <v>2016</v>
+      </c>
+      <c r="G51">
+        <v>2016</v>
       </c>
       <c r="H51" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="L51" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="M51" t="s">
-        <v>306</v>
-      </c>
-      <c r="N51">
-        <v>47.083329999999997</v>
-      </c>
-      <c r="O51">
-        <v>8</v>
-      </c>
-      <c r="R51" t="s">
-        <v>27</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="D52" t="s">
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="F52">
         <v>2009</v>
       </c>
       <c r="G52" s="1">
-        <v>39990</v>
+        <v>39901</v>
       </c>
       <c r="H52" t="s">
         <v>131</v>
@@ -4368,45 +4368,54 @@
         <v>44</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K52" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="L52" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M52" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="N52">
+        <v>47.145499999999998</v>
+      </c>
+      <c r="O52">
+        <v>17.622399999999999</v>
+      </c>
+      <c r="R52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="D53" t="s">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="F53">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G53" s="1">
-        <v>40073</v>
+        <v>39539</v>
       </c>
       <c r="H53" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s">
         <v>21</v>
@@ -4415,48 +4424,39 @@
         <v>299</v>
       </c>
       <c r="L53" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="M53" t="s">
-        <v>329</v>
-      </c>
-      <c r="P53" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="D54" t="s">
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="F54">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G54" s="1">
-        <v>40073</v>
+        <v>40217</v>
       </c>
       <c r="H54" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s">
         <v>21</v>
@@ -4465,39 +4465,36 @@
         <v>299</v>
       </c>
       <c r="L54" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="M54" t="s">
-        <v>329</v>
-      </c>
-      <c r="R54" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="D55" t="s">
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="F55">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G55" s="1">
-        <v>40073</v>
+        <v>40242</v>
       </c>
       <c r="H55" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="I55" t="s">
         <v>44</v>
@@ -4509,39 +4506,36 @@
         <v>299</v>
       </c>
       <c r="L55" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="M55" t="s">
-        <v>329</v>
-      </c>
-      <c r="R55" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="D56" t="s">
         <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="F56">
         <v>2009</v>
       </c>
       <c r="G56" s="1">
-        <v>40073</v>
+        <v>39882</v>
       </c>
       <c r="H56" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="I56" t="s">
         <v>44</v>
@@ -4556,10 +4550,7 @@
         <v>300</v>
       </c>
       <c r="M56" t="s">
-        <v>329</v>
-      </c>
-      <c r="R56" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
@@ -4605,25 +4596,25 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D58" t="s">
         <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F58">
         <v>2010</v>
       </c>
       <c r="G58" s="1">
-        <v>40217</v>
+        <v>40252</v>
       </c>
       <c r="H58" t="s">
         <v>131</v>
@@ -4635,36 +4626,36 @@
         <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L58" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="M58" t="s">
-        <v>367</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="E59" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="F59">
         <v>2010</v>
       </c>
       <c r="G59" s="1">
-        <v>40242</v>
+        <v>40275</v>
       </c>
       <c r="H59" t="s">
         <v>131</v>
@@ -4682,112 +4673,112 @@
         <v>356</v>
       </c>
       <c r="M59" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="F60">
-        <v>2010</v>
-      </c>
-      <c r="G60" s="1">
-        <v>40242</v>
+        <v>2016</v>
+      </c>
+      <c r="G60">
+        <v>2016</v>
       </c>
       <c r="H60" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="I60" t="s">
         <v>44</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="K60" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="L60" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="M60" t="s">
-        <v>369</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="E61" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F61">
-        <v>2010</v>
-      </c>
-      <c r="G61" s="1">
-        <v>40248</v>
+        <v>2016</v>
+      </c>
+      <c r="G61">
+        <v>2016</v>
       </c>
       <c r="H61" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="I61" t="s">
         <v>44</v>
       </c>
       <c r="J61" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="K61" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="L61" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="M61" t="s">
-        <v>346</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="E62" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="F62">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G62" s="1">
-        <v>40252</v>
+        <v>41011</v>
       </c>
       <c r="H62" t="s">
         <v>131</v>
@@ -4802,21 +4793,21 @@
         <v>292</v>
       </c>
       <c r="L62" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="M62" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D63" t="s">
         <v>233</v>
@@ -4825,13 +4816,13 @@
         <v>234</v>
       </c>
       <c r="F63">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G63" s="1">
-        <v>40275</v>
+        <v>40987</v>
       </c>
       <c r="H63" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I63" t="s">
         <v>44</v>
@@ -4843,36 +4834,36 @@
         <v>299</v>
       </c>
       <c r="L63" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M63" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B64" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C64" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D64" t="s">
         <v>233</v>
       </c>
       <c r="E64" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="F64">
         <v>2011</v>
       </c>
       <c r="G64" s="1">
-        <v>40566</v>
+        <v>40590</v>
       </c>
       <c r="H64" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
         <v>44</v>
@@ -4884,33 +4875,33 @@
         <v>299</v>
       </c>
       <c r="L64" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M64" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="B65" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C65" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D65" t="s">
         <v>233</v>
       </c>
       <c r="E65" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F65">
         <v>2011</v>
       </c>
       <c r="G65" s="1">
-        <v>40572</v>
+        <v>40583</v>
       </c>
       <c r="H65" t="s">
         <v>131</v>
@@ -4925,86 +4916,77 @@
         <v>299</v>
       </c>
       <c r="L65" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M65" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B66" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C66" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="E66" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="F66">
         <v>2011</v>
       </c>
       <c r="G66" s="1">
-        <v>40577</v>
+        <v>40572</v>
       </c>
       <c r="H66" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="I66" t="s">
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K66" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="L66" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="M66" t="s">
-        <v>306</v>
-      </c>
-      <c r="N66">
-        <v>50.45</v>
-      </c>
-      <c r="O66">
-        <v>30.5</v>
-      </c>
-      <c r="R66" t="s">
-        <v>27</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C67" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D67" t="s">
         <v>233</v>
       </c>
       <c r="E67" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F67">
         <v>2011</v>
       </c>
       <c r="G67" s="1">
-        <v>40583</v>
+        <v>40566</v>
       </c>
       <c r="H67" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="I67" t="s">
         <v>44</v>
@@ -5016,36 +4998,36 @@
         <v>299</v>
       </c>
       <c r="L67" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M67" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C68" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D68" t="s">
         <v>233</v>
       </c>
       <c r="E68" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="F68">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G68" s="1">
-        <v>40590</v>
+        <v>40969</v>
       </c>
       <c r="H68" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I68" t="s">
         <v>44</v>
@@ -5057,10 +5039,10 @@
         <v>299</v>
       </c>
       <c r="L68" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="M68" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
@@ -5106,25 +5088,25 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C70" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F70">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G70" s="1">
-        <v>40967</v>
+        <v>40577</v>
       </c>
       <c r="H70" t="s">
         <v>118</v>
@@ -5133,39 +5115,48 @@
         <v>44</v>
       </c>
       <c r="J70" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K70" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="L70" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="M70" t="s">
-        <v>333</v>
+        <v>306</v>
+      </c>
+      <c r="N70">
+        <v>50.45</v>
+      </c>
+      <c r="O70">
+        <v>30.5</v>
+      </c>
+      <c r="R70" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B71" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C71" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="F71">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="G71" s="1">
-        <v>40969</v>
+        <v>39884</v>
       </c>
       <c r="H71" t="s">
         <v>118</v>
@@ -5174,39 +5165,48 @@
         <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K71" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="L71" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M71" t="s">
-        <v>375</v>
+        <v>364</v>
+      </c>
+      <c r="N71">
+        <v>45.1</v>
+      </c>
+      <c r="O71">
+        <v>0.7</v>
+      </c>
+      <c r="R71" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>274</v>
       </c>
       <c r="B72" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="C72" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="D72" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="F72">
-        <v>2012</v>
-      </c>
-      <c r="G72" s="1">
-        <v>40987</v>
+        <v>2014</v>
+      </c>
+      <c r="G72">
+        <v>2014</v>
       </c>
       <c r="H72" t="s">
         <v>118</v>
@@ -5218,39 +5218,39 @@
         <v>21</v>
       </c>
       <c r="K72" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L72" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="M72" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="B73" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="D73" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="F73">
-        <v>2012</v>
-      </c>
-      <c r="G73" s="1">
-        <v>41011</v>
+        <v>2013</v>
+      </c>
+      <c r="G73">
+        <v>2013</v>
       </c>
       <c r="H73" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I73" t="s">
         <v>44</v>
@@ -5262,33 +5262,33 @@
         <v>292</v>
       </c>
       <c r="L73" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="M73" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c r="D74" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>117</v>
+        <v>285</v>
       </c>
       <c r="F74">
         <v>2012</v>
       </c>
       <c r="G74" s="1">
-        <v>41011</v>
+        <v>40967</v>
       </c>
       <c r="H74" t="s">
         <v>118</v>
@@ -5306,30 +5306,30 @@
         <v>293</v>
       </c>
       <c r="M74" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c r="D75" t="s">
         <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="F75">
         <v>2012</v>
       </c>
-      <c r="G75" s="1">
-        <v>41013</v>
+      <c r="G75">
+        <v>2012</v>
       </c>
       <c r="H75" t="s">
         <v>118</v>
@@ -5344,15 +5344,15 @@
         <v>292</v>
       </c>
       <c r="L75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M75" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q53" r:id="rId1" xr:uid="{284B8577-A355-764F-BF48-D4997E30226F}"/>
+    <hyperlink ref="Q35" r:id="rId1" xr:uid="{284B8577-A355-764F-BF48-D4997E30226F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/data/01_pd-samples/25_10-16_pd_samples-edited.xlsx
+++ b/data/01_pd-samples/25_10-16_pd_samples-edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caprinapugliese/Documents/School/Uconn/2024-26_Grad_School/Dagilis-lab/WNS-project/data/01_pd-samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D700BA-60D2-714E-8DEE-7D0AFA95AF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCA3D26-0134-0445-8385-6D6FD08E9F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="37220" windowHeight="21100" xr2:uid="{D99E271A-162C-F24C-8D0E-BBA6ED327C07}"/>
   </bookViews>
@@ -1826,14 +1826,14 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1858,7 +1858,7 @@
     <tableColumn id="1" xr3:uid="{30EFF156-3D30-484A-8AD7-EA85D1CE06B4}" name="sample_id"/>
     <tableColumn id="2" xr3:uid="{A57D6E87-53D9-9040-A419-D8F9EB108C4C}" name="individuals"/>
     <tableColumn id="24" xr3:uid="{3B742AA1-E6CD-E149-8D76-9BF45791B0CA}" name="names"/>
-    <tableColumn id="23" xr3:uid="{696A16A2-3458-2749-BBFE-412CD7189CD5}" name="sra_number" dataDxfId="0"/>
+    <tableColumn id="23" xr3:uid="{696A16A2-3458-2749-BBFE-412CD7189CD5}" name="sra_number" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{2A54557F-8AB7-7F43-877C-FD7C0EA8D35A}" name="sra" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{BDE76617-CD6A-DC47-AB84-5ECFBE4656EA}" name="platform"/>
     <tableColumn id="5" xr3:uid="{8E9655EC-1F75-A54B-A3E9-4D24F04D79E1}" name="library"/>
@@ -1877,7 +1877,7 @@
     <tableColumn id="19" xr3:uid="{180BBF41-7859-AE4D-9DB9-B4899CCD75FC}" name="sra_project"/>
     <tableColumn id="15" xr3:uid="{C8CDD26B-E025-644D-850C-479D08FC207A}" name="provider"/>
     <tableColumn id="21" xr3:uid="{1F073B69-2EEB-4F4E-A4F7-CF5A32E0C613}" name="strain"/>
-    <tableColumn id="16" xr3:uid="{5A8723C2-EA7F-804A-A08F-C0FD996227E9}" name="citation" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{5A8723C2-EA7F-804A-A08F-C0FD996227E9}" name="citation" dataDxfId="0"/>
     <tableColumn id="17" xr3:uid="{804E7016-075C-2E4B-B8E7-6333BEF7B9EA}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2203,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4D9535-1238-AB48-B467-419735026371}">
   <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2635,7 +2635,7 @@
       <c r="B7" t="s">
         <v>132</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>131</v>
       </c>
       <c r="D7" s="5">
@@ -2703,7 +2703,7 @@
       <c r="B8" t="s">
         <v>136</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D8" s="5">
@@ -2768,7 +2768,7 @@
       <c r="B9" t="s">
         <v>140</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>139</v>
       </c>
       <c r="D9" s="5">
@@ -2833,7 +2833,7 @@
       <c r="B10" t="s">
         <v>144</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D10" s="5">
@@ -2898,7 +2898,7 @@
       <c r="B11" t="s">
         <v>148</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>147</v>
       </c>
       <c r="D11" s="5">
@@ -2963,7 +2963,7 @@
       <c r="B12" t="s">
         <v>151</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="5">
@@ -3028,7 +3028,7 @@
       <c r="B13" t="s">
         <v>127</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="5">
